--- a/service/TestService/config/xlsx/权限表.xlsx
+++ b/service/TestService/config/xlsx/权限表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workplace\mine\CrystalNet\CrystalNet\CrystalNet\service\TestService\config\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06DCD247-C2F4-40A7-AB53-99B04BBCC0E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1A7CE8-95BB-425F-9FBF-DFB634058A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23652" yWindow="7092" windowWidth="23040" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28368" yWindow="5928" windowWidth="23040" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="权限表|RoleAuth" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>配置表生成的版本：客户端/服务端</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,6 +92,27 @@
   </si>
   <si>
     <t>Pwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AccountType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:普通
+1:接受广播消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"test_role_broadcast"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1998569%&amp;Jd20."</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -137,7 +158,9 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -418,20 +441,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.21875" customWidth="1"/>
+    <col min="4" max="4" width="44.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -441,8 +465,11 @@
       <c r="C1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -450,10 +477,13 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -461,10 +491,13 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -472,39 +505,53 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
